--- a/event_tracker (version 1).xlsx
+++ b/event_tracker (version 1).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna_\Documents\Cape Verde\cvao_hono_sep24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B965E6-A313-47DD-8863-957DC0D4D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8587A377-4E35-43E0-9BB4-2A9748CE3000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97F4530F-A1E5-44BE-B55B-F0749991B1BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{97F4530F-A1E5-44BE-B55B-F0749991B1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Flow meter" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Flow meter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -268,6 +269,30 @@
   </si>
   <si>
     <t>Zero on (final zero)</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Time response</t>
+  </si>
+  <si>
+    <t>Time delay</t>
+  </si>
+  <si>
+    <t>Time delay is the amount of time between zero starting and a change being seen in data - going to use start of rise as start of zero</t>
+  </si>
+  <si>
+    <t>Time response is the amount of time it takes to get to get back to 90% of ambient measurement</t>
+  </si>
+  <si>
+    <t>Average time delay</t>
+  </si>
+  <si>
+    <t>Average time response</t>
+  </si>
+  <si>
+    <t>Time correction</t>
   </si>
 </sst>
 </file>
@@ -320,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,6 +353,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBDD6AF-A7D5-40F1-A028-DE83911E3981}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,6 +1971,382 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E7D126-C222-41BF-81C7-D6E3A3C2F399}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="8">
+        <f>AVERAGE(B2:B43)</f>
+        <v>14.147058823529411</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>45542.927083333336</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8">
+        <f>AVERAGE(C2:C43)</f>
+        <v>16.75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>45543.1875</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>45543.447916666664</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F1+F2*0.5</f>
+        <v>22.522058823529413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>45543.710416666669</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>45543.970833333333</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>45544.231249999997</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>45544.541666666664</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>45544.71875</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>45544.979166666664</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>45545.239583333336</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>45545.5</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>45545.763194444444</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>45546.708333333336</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>45546.771527777775</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>45547.031944444447</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>45547.292361111111</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>45547.59375</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>45547.854166666664</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>45548.114583333336</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>45548.375</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>45548.738888888889</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>45548.999305555553</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>45549.259722222225</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>45549.53125</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>45549.791666666664</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>45550.052083333336</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>45550.314583333333</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>45550.574999999997</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>45550.835416666669</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>45551.729166666664</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>45551.989583333336</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>45552.25</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>45552.511805555558</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>45552.772916666669</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>45553.033333333333</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>45553.293749999997</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A6C6D4-A4FA-4DB4-8BE2-DC42B7F37530}">
   <dimension ref="A1:M106"/>
   <sheetViews>
